--- a/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/同期処理一覧.xlsx
+++ b/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/同期処理一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
   <si>
     <t>同期方法</t>
     <rPh sb="0" eb="2">
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミューテックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C++11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セマフォ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件変数</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前付きイベント</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -182,13 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IPC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,10 +179,6 @@
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -257,25 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◎</t>
-  </si>
-  <si>
-    <t>◎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロック
-速度</t>
-    <rPh sb="4" eb="6">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>割り込み</t>
     <rPh sb="0" eb="1">
       <t>ワ</t>
@@ -314,32 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ロック速度 … （他がロックしていない状況で）ロック／解放にかかる速度</t>
-    <rPh sb="4" eb="6">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ロック取得順序保証 … 先に待機した順にロック取得することを保証するか？</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
@@ -353,43 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・再帰ロック … T：スレッド保証（多重ロックしても1回解放すればOK）、R：再帰ロック（多重ロックした数だけ解放する必要あり）、×：多重ロックでデッドロック</t>
-    <rPh sb="1" eb="3">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タジュウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイホウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タジュウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カイホウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>タジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(依)</t>
   </si>
   <si>
@@ -397,10 +292,6 @@
     <rPh sb="1" eb="2">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -438,10 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -484,33 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・待機方法 … B：ビジーウェイト、S：スリープウェイト、B+S：一定回数ビジーウェイト後にスリープウェイト</t>
-    <rPh sb="1" eb="3">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B+S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,15 +399,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(依)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -607,36 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロセス間同期はオプションで可。デフォルトは無効。
-Writeロックを多重ロックするとスレッドが強制終了。</t>
-    <rPh sb="35" eb="37">
-      <t>タジュウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>排他制御（特殊操作）</t>
-    <rPh sb="0" eb="2">
-      <t>ハイタ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有限リソース使用権獲得</t>
     <rPh sb="0" eb="2">
       <t>ユウゲン</t>
@@ -647,6 +469,428 @@
     <rPh sb="9" eb="11">
       <t>カクトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス間同期はオプションで可。デフォルトは無効。
+Writeロックを同一スレッド上で多重ロックするとスレッドが強制終了。</t>
+    <rPh sb="35" eb="37">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・待機方法 … B：ビジーウェイト、S：スリープ、B+S：一定回数ビジーウェイト後にスリープ</t>
+    <rPh sb="1" eb="3">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・（?）：調査不完全につき不明</t>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>フカンゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+  </si>
+  <si>
+    <t>・赤字：注目すべきポイント</t>
+    <rPh sb="1" eb="3">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再帰ロック … 同一スレッド上で多重ロックしたときの挙動</t>
+    <rPh sb="1" eb="3">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　T：スレッド保証（１回解放すればOK）、R：再帰保証（ロックした数だけ解放すればOK）</t>
+    <rPh sb="16" eb="18">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　×-D：デッドロック、X-F：スレッド強制終了、X-E：例外発生（プログラム終了）</t>
+    <rPh sb="29" eb="31">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×-D</t>
+  </si>
+  <si>
+    <t>×-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X-D
+R*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+○*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+△*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+△*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+△*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・* 付き：オプションによる挙動</t>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B+S*</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インラインアセンブラを使用しないと正しくロックできない。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">×
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>○*</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>排他制御</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（特殊操作：読み取りロック時＝多重読み取りロック許可、書き込みロックはブロック／書き込みロック時＝全てのロックをブロック）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ロック速度 … （他がロックしていない状況で）ロック／解放にかかる時間</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロック
+速度
+(sec)</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　ロック取得 10,000,000 回実行時の処理時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　環境＝「※Intel Core i7-3770K,3.5GHz,CoreX4,HT/Win8.1,64bit／HyperV+CentOS6.4,64bit／テストプログラムは最適化ビルド」にて、</t>
+    <rPh sb="11" eb="13">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（名前なし）ミューテックス</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（名前なし）セマフォ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（名前なし）イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチプロセッサ環境では、オプションにより、指定回数のビジーウェイト後にスリープ。</t>
+    <rPh sb="8" eb="10">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ノチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・? 付き：確証を得ていない</t>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（名前なし）セマフォ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unixで古典的なセマフォの手法。</t>
+    <rPh sb="5" eb="8">
+      <t>コテンテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Posix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -654,7 +898,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +926,49 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,8 +987,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -896,17 +1202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1140,13 +1435,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,11 +1513,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,35 +1525,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1252,26 +1555,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,70 +1925,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.875" customWidth="1"/>
+    <col min="10" max="10" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>67</v>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="54.75" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickTop="1">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1624,29 +2002,31 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0.22001899999999999</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="54">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1654,183 +2034,197 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.59780199999999994</v>
+      </c>
       <c r="E4" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="H4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="E5" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" ht="27">
       <c r="A6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.195269</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
+      <c r="A7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4.3118480000000003</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="D8" s="44">
+        <v>4.3531399999999998</v>
+      </c>
       <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.64138799999999996</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1838,504 +2232,549 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="46">
+        <v>9.0838000000000002E-2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="47">
+        <v>0.120494</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" ht="27">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.87647600000000003</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="18">
+        <v>8.3549989999999994</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.56464199999999998</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.57447700000000002</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="27">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="20">
+        <v>4.6363279999999998</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="19">
+        <v>4.643116</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.73898399999999997</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" ht="27">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2.0782970000000001</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="60">
+        <v>2.0873170000000001</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="E28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12" t="s">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="33"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="24" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
-        <v>59</v>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/同期処理一覧.xlsx
+++ b/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/同期処理一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
   <si>
     <t>同期方法</t>
     <rPh sb="0" eb="2">
@@ -32,16 +32,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Volatile型変数</t>
-    <rPh sb="8" eb="9">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,10 +793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　　　　　　　　ロック取得 10,000,000 回実行時の処理時間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　　　　　　　　　環境＝「※Intel Core i7-3770K,3.5GHz,CoreX4,HT/Win8.1,64bit／HyperV+CentOS6.4,64bit／テストプログラムは最適化ビルド」にて、</t>
     <rPh sb="11" eb="13">
       <t>カンキョウ</t>
@@ -880,17 +866,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unixで古典的なセマフォの手法。</t>
+    <t>Posix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトミック操作</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volatile型変数</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ロック不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。速度の比較用に表記。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒカクヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常変数操作</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　ロック取得 10,000,000 回実行時の処理時間　※Posix, SytemVの計測はやや不利な状況</t>
+    <rPh sb="53" eb="55">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フリ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+△*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S?</t>
+  </si>
+  <si>
+    <t>S?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(依)?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cygwin環境利用不可。</t>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unixで古典的なセマフォの手法。
+Cygwin環境利用不可。</t>
     <rPh sb="5" eb="8">
       <t>コテンテキ</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>シュホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -901,7 +1013,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1079,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1006,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1138,36 +1265,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1249,19 +1346,6 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1357,19 +1441,6 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1461,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1501,149 +1572,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,11 +1990,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1949,829 +2011,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="54.75" thickBot="1">
-      <c r="A1" s="31" t="s">
-        <v>51</v>
+      <c r="A1" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>47</v>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickTop="1">
-      <c r="A2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="A2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="44">
-        <v>0.22001899999999999</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.188224</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="54">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.59780199999999994</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.57994400000000002</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="27">
       <c r="A6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0.195269</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.19776199999999999</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="20">
-        <v>4.3118480000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="17">
+        <v>4.8806659999999997</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="44">
-        <v>4.3531399999999998</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="34">
+        <v>4.9038430000000002</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.65003699999999998</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="19">
-        <v>0.64138799999999996</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="A10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="49">
+        <v>6.5440000000000003E-3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="35">
+        <v>7.6748999999999998E-2</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0.127556</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.12400700000000001</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="27">
+      <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="46">
-        <v>9.0838000000000002E-2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="B16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.91441499999999998</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="27">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="15">
+        <v>8.1866040000000009</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="47">
-        <v>0.120494</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:10" ht="27">
-      <c r="A14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.87647600000000003</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="18">
-        <v>8.3549989999999994</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="I18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.56464199999999998</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.57447700000000002</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="55" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="27">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.60754900000000001</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.568886</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" ht="27">
+      <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4.6363279999999998</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="16">
+        <v>4.7871519999999999</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.94445800000000002</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="27">
+      <c r="A25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="27">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2.102039</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2.0795300000000001</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.75804199999999999</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="53"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="20">
-        <v>4.6363279999999998</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="D30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="19">
-        <v>4.643116</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.73898399999999997</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10" ht="27">
-      <c r="A25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="20">
-        <v>2.0782970000000001</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="60">
-        <v>2.0873170000000001</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="40" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
